--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2122905.736723523</v>
+        <v>2118601.396913655</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9746293.907297965</v>
+        <v>9746293.907297963</v>
       </c>
     </row>
     <row r="11">
@@ -658,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
+        <v>12.83417464571001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>152.7676931992223</v>
-      </c>
-      <c r="T2" t="n">
-        <v>212.2897156032232</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>124.0596109626756</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>109.3170492634406</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89.23554696336318</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -803,7 +803,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>90.58188984743751</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>218.4981500625428</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>219.4450108596165</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015061</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>116.9725659584294</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -986,16 +986,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>136.4462722903604</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>10.18456372565635</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>83.36217506119134</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>263.7138800015061</v>
@@ -1116,7 +1116,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>176.6348089687886</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>333.70807780237</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203003</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465048</v>
+        <v>65.76608425465</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>123.4854171348404</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>10.40595192596148</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614508</v>
+        <v>91.0626477516257</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115243</v>
+        <v>20.2497997611522</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901739</v>
+        <v>134.3791152901737</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0697045406877</v>
+        <v>192.0697045406876</v>
       </c>
       <c r="U9" t="n">
         <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
-        <v>231.0241379848919</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>154.5323239293498</v>
+        <v>84.79514795625707</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>20.43112068613203</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>22.61263105777477</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1773,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>85.08368458989422</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,13 +1824,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>44.30292280757614</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="W19" t="n">
-        <v>201.5291659007891</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>61.44013021076719</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>159.4718642460857</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>172.0260335000785</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>32.37373183919259</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.8096229103346</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>216.7094028874707</v>
+        <v>25.52471385612634</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,10 +3432,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>33.0162797694411</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>108.5813113004301</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>41.74133133758713</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>80.08971311158706</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3951,13 +3951,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>176.7621441121356</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4030,7 +4030,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>129.1078928223853</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.7979242836798</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C2" t="n">
-        <v>294.4202677165018</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D2" t="n">
-        <v>294.4202677165018</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="E2" t="n">
-        <v>294.4202677165018</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672984</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
         <v>21.09711040012049</v>
@@ -4330,52 +4330,52 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030602</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991311</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358409</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601762</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946887</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298167</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>686.1106626298167</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>686.1106626298167</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>686.1106626298167</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>686.1106626298167</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.7979242836798</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>111.2340265247298</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C3" t="n">
-        <v>111.2340265247298</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D3" t="n">
-        <v>111.2340265247298</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>111.2340265247298</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>111.2340265247298</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
         <v>21.09711040012049</v>
@@ -4415,46 +4415,46 @@
         <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302307</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267545</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293595</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560893</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212814</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212814</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212814</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>808.383790249628</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>573.2316820178853</v>
+        <v>801.367527981072</v>
       </c>
       <c r="W3" t="n">
-        <v>318.9943252896837</v>
+        <v>547.1301712528705</v>
       </c>
       <c r="X3" t="n">
-        <v>318.9943252896837</v>
+        <v>339.2786710473376</v>
       </c>
       <c r="Y3" t="n">
-        <v>111.2340265247298</v>
+        <v>131.5183722823837</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>476.1884258635613</v>
+        <v>339.7831104574528</v>
       </c>
       <c r="C4" t="n">
-        <v>476.1884258635613</v>
+        <v>339.7831104574528</v>
       </c>
       <c r="D4" t="n">
-        <v>476.1884258635613</v>
+        <v>189.666471045117</v>
       </c>
       <c r="E4" t="n">
-        <v>328.2753322811682</v>
+        <v>189.666471045117</v>
       </c>
       <c r="F4" t="n">
-        <v>328.2753322811682</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>963.3586615742693</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>963.3586615742693</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>963.3586615742693</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>696.9810050070914</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="V4" t="n">
-        <v>696.9810050070914</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="W4" t="n">
-        <v>696.9810050070914</v>
+        <v>567.7726613554701</v>
       </c>
       <c r="X4" t="n">
-        <v>696.9810050070914</v>
+        <v>339.7831104574528</v>
       </c>
       <c r="Y4" t="n">
-        <v>476.1884258635613</v>
+        <v>339.7831104574528</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>936.701412977308</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="C5" t="n">
-        <v>936.701412977308</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="D5" t="n">
-        <v>936.701412977308</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="E5" t="n">
-        <v>670.32375641013</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="F5" t="n">
-        <v>403.9460998429521</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
@@ -4606,13 +4606,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>936.701412977308</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>936.701412977308</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>936.701412977308</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>474.1185955443175</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>474.1185955443175</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>325.1841858830662</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>165.9467308776107</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>503.6022960313624</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
         <v>739.5286634293598</v>
@@ -4670,28 +4670,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>917.031002541014</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>917.031002541014</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>681.8788943092713</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>681.8788943092713</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>681.8788943092713</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>474.1185955443175</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.2115014322552</v>
+        <v>355.3743762745875</v>
       </c>
       <c r="C7" t="n">
-        <v>183.2115014322552</v>
+        <v>186.4381933466806</v>
       </c>
       <c r="D7" t="n">
-        <v>183.2115014322552</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="E7" t="n">
-        <v>183.2115014322552</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="F7" t="n">
         <v>36.32155393434483</v>
@@ -4728,19 +4728,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4755,22 +4755,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>970.651302772498</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>704.27364620532</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="V7" t="n">
-        <v>449.5891579994332</v>
+        <v>533.7933752329598</v>
       </c>
       <c r="W7" t="n">
-        <v>183.2115014322552</v>
+        <v>355.3743762745875</v>
       </c>
       <c r="X7" t="n">
-        <v>183.2115014322552</v>
+        <v>355.3743762745875</v>
       </c>
       <c r="Y7" t="n">
-        <v>183.2115014322552</v>
+        <v>355.3743762745875</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1699.084539679463</v>
+        <v>1169.780630983656</v>
       </c>
       <c r="C8" t="n">
-        <v>1330.122022739051</v>
+        <v>1169.780630983656</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.122022739051</v>
+        <v>1169.780630983656</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3337701408066</v>
+        <v>1169.780630983656</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3478653511991</v>
+        <v>758.7947261940483</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6416433428662</v>
+        <v>421.7158597270078</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428662</v>
+        <v>117.641643342866</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685589</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467167</v>
+        <v>187.370225146718</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607413</v>
+        <v>442.1757437607442</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045913</v>
+        <v>795.1862829045963</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995225</v>
+        <v>1219.647962995231</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209582</v>
+        <v>1655.591685209591</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940593</v>
+        <v>2053.905718940603</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550195</v>
+        <v>2359.356530550207</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661161</v>
+        <v>2540.564622661174</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.56276034278</v>
+        <v>2560.562760342794</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762133</v>
+        <v>2435.830015762147</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.830015762133</v>
+        <v>2227.07793185842</v>
       </c>
       <c r="U8" t="n">
-        <v>2435.830015762133</v>
+        <v>2227.07793185842</v>
       </c>
       <c r="V8" t="n">
-        <v>2425.318953210657</v>
+        <v>1896.01504451485</v>
       </c>
       <c r="W8" t="n">
-        <v>2072.550297940542</v>
+        <v>1543.246389244736</v>
       </c>
       <c r="X8" t="n">
-        <v>1699.084539679463</v>
+        <v>1169.780630983656</v>
       </c>
       <c r="Y8" t="n">
-        <v>1699.084539679463</v>
+        <v>1169.780630983656</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>929.5097208010891</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>755.0566915199621</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>606.1222818587108</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>446.8848268532553</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801403</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763285</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993887</v>
+        <v>71.66559839993892</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685589</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637185</v>
+        <v>238.3188829507242</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148174</v>
+        <v>422.9158793018242</v>
       </c>
       <c r="L9" t="n">
-        <v>592.6217377482983</v>
+        <v>717.4518627353066</v>
       </c>
       <c r="M9" t="n">
-        <v>1208.393778287027</v>
+        <v>1232.683910187191</v>
       </c>
       <c r="N9" t="n">
-        <v>1842.133061471865</v>
+        <v>1866.423193372033</v>
       </c>
       <c r="O9" t="n">
-        <v>2174.019871459254</v>
+        <v>2198.310003359423</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888878</v>
+        <v>2445.345361789049</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442623</v>
+        <v>2560.562760342794</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.56276034278</v>
+        <v>2560.562760342794</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251696</v>
+        <v>2424.82628025171</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685345</v>
+        <v>2230.816477685359</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751574</v>
+        <v>2002.726321751588</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.36860661532</v>
+        <v>1767.574213519845</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791644</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586111</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821157</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>630.8604620049533</v>
+        <v>1005.33855060558</v>
       </c>
       <c r="C10" t="n">
-        <v>461.9242790770464</v>
+        <v>836.4023676776729</v>
       </c>
       <c r="D10" t="n">
-        <v>461.9242790770464</v>
+        <v>686.2857282653372</v>
       </c>
       <c r="E10" t="n">
-        <v>461.9242790770464</v>
+        <v>538.3726346829441</v>
       </c>
       <c r="F10" t="n">
-        <v>461.9242790770464</v>
+        <v>391.4826871850337</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8310225827537</v>
+        <v>305.8310225827538</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0862549473602</v>
+        <v>157.0862549473603</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685589</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380132</v>
+        <v>76.63468308380199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676565</v>
+        <v>248.2500215676577</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368914</v>
+        <v>523.3850043368935</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904027</v>
+        <v>823.8653899904057</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101611</v>
+        <v>1122.635640101615</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.58202793109</v>
+        <v>1382.582027931094</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616498</v>
+        <v>1581.490387616504</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412618</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="S10" t="n">
-        <v>1336.515802634452</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="T10" t="n">
-        <v>1113.534501108858</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="U10" t="n">
-        <v>1113.534501108858</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="V10" t="n">
-        <v>858.8500129029707</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="W10" t="n">
-        <v>858.8500129029707</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="X10" t="n">
-        <v>630.8604620049533</v>
+        <v>1407.77959457935</v>
       </c>
       <c r="Y10" t="n">
-        <v>630.8604620049533</v>
+        <v>1186.98701543582</v>
       </c>
     </row>
     <row r="11">
@@ -5038,10 +5038,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5059,7 +5059,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5123,25 +5123,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>710.248605371872</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7369613277359</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>363.7369613277359</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>198.744407872558</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5281,16 +5281,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5357,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1643.635426776346</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1354.218256739386</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5512,16 +5512,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5533,10 +5533,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5545,7 +5545,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1702.079034721979</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>781.3544215660705</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>612.4182386381636</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1230.136551607618</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>1002.147000709601</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>781.3544215660705</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5746,43 +5746,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5971,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1965.532750177311</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>641.8461362382112</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>472.9099533103043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1816.378389352846</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1561.693901146959</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1272.276731109998</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1044.287180211981</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>823.4946010684509</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6262,7 +6262,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6308,25 +6308,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2273.199413378161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2273.199413378161</v>
+        <v>2164.361806256059</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1875.286579600257</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1620.602091394371</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1331.18492135741</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1103.195370459393</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>882.4027913158625</v>
       </c>
     </row>
     <row r="29">
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6545,25 +6545,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,37 +6682,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6785,22 +6785,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2045.209862480144</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>2045.209862480144</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1790.525374274257</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1501.108204237296</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6922,25 +6922,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7022,22 +7022,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703109</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>526.5658826424041</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>376.4492432300683</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2337.284991357604</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.683526380545</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.608299724743</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.923811518856</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.506641481895</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.517090583878</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="38">
@@ -7180,13 +7180,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>580.8993044876688</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>430.7826650753331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>282.8695714929399</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>135.9796239950296</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7405,25 +7405,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,25 +7432,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
         <v>3094.515198591809</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1337.934786622704</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1889.844516861991</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3342.537229081862</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C43" t="n">
-        <v>3173.601046153955</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.48440674162</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159227</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661316</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376196</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218394</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866308</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4440.932614305899</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>4440.932614305899</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>4262.38499399061</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3972.96782395365</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3744.978273055632</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>3524.185693912102</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7642,40 +7642,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7721,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>383.4415877881669</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7848,10 +7848,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127216</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446524</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775106</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8303,10 +8303,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>71.18793141915887</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>26.13373767211354</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,10 +8540,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>255.2581536004325</v>
+        <v>153.702605027861</v>
       </c>
       <c r="N9" t="n">
-        <v>249.1463441538074</v>
+        <v>249.1463441538092</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.98618304348477</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>124.9899273367992</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23661,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>61.35027805667495</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>207.8347205162519</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="W19" t="n">
-        <v>84.99383243580195</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>84.99383243580198</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>126.7126101431584</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>9.000252501566052</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>185.0317184880957</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.02235727160271</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0.6960474398175336</v>
+        <v>191.8807364711619</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>113.4176828771281</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>72.44497470121448</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>68.5257599066253</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>75.37549921169244</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>19.50758019582707</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.312087466</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>837694.312087466</v>
+        <v>837694.3120874659</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>837694.3120874658</v>
+        <v>837694.3120874659</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="E2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="F2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="G2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="H2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>585181.2847752545</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
         <v>585181.2847752544</v>
@@ -26349,10 +26349,10 @@
         <v>585181.2847752542</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752548</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
         <v>585181.2847752543</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.980591193</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580781</v>
+        <v>390680.0076580819</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606943</v>
+        <v>507909.2320606905</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101745</v>
+        <v>95270.23779101834</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954692</v>
+        <v>132717.9756954683</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>140465.251750112</v>
+        <v>140465.2517501109</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
@@ -26475,7 +26475,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.8675756789</v>
+        <v>92902.86757567918</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-399107.8662628743</v>
       </c>
       <c r="C6" t="n">
-        <v>280980.1143283191</v>
+        <v>280980.114328319</v>
       </c>
       <c r="D6" t="n">
-        <v>-28792.84383226394</v>
+        <v>-28792.84383226637</v>
       </c>
       <c r="E6" t="n">
-        <v>-35017.50936114056</v>
+        <v>-35364.88861549376</v>
       </c>
       <c r="F6" t="n">
-        <v>472891.7226995539</v>
+        <v>472544.3434451968</v>
       </c>
       <c r="G6" t="n">
-        <v>472891.7226995539</v>
+        <v>472544.3434451966</v>
       </c>
       <c r="H6" t="n">
-        <v>472891.7226995539</v>
+        <v>472544.3434451966</v>
       </c>
       <c r="I6" t="n">
-        <v>472891.7226995538</v>
+        <v>472544.343445197</v>
       </c>
       <c r="J6" t="n">
-        <v>403892.5682804397</v>
+        <v>403545.1890260827</v>
       </c>
       <c r="K6" t="n">
-        <v>472891.7226995538</v>
+        <v>472544.3434451968</v>
       </c>
       <c r="L6" t="n">
-        <v>377621.4849085362</v>
+        <v>377274.1056541784</v>
       </c>
       <c r="M6" t="n">
-        <v>340173.7470040843</v>
+        <v>339826.3677497282</v>
       </c>
       <c r="N6" t="n">
-        <v>472891.7226995535</v>
+        <v>472544.3434451969</v>
       </c>
       <c r="O6" t="n">
-        <v>472891.7226995542</v>
+        <v>472544.3434451967</v>
       </c>
       <c r="P6" t="n">
-        <v>472891.7226995536</v>
+        <v>472544.3434451967</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627821</v>
+        <v>933.7024595627852</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.140690085695</v>
+        <v>640.1406900856986</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,7 +26807,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933039</v>
+        <v>319.6474457933069</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788919</v>
+        <v>434.2730407788886</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.426810084189</v>
+        <v>376.4268100841924</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139533</v>
+        <v>532.5675980139498</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841889</v>
+        <v>376.4268100841924</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139533</v>
+        <v>532.5675980139498</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.426810084189</v>
+        <v>376.4268100841924</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139533</v>
+        <v>532.5675980139498</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695015</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>169.3614049543567</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>262.178327693378</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>57.21613438642676</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27472,7 +27472,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>46.78717262306027</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120976</v>
@@ -27514,7 +27514,7 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27523,7 +27523,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27542,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,10 +27557,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>36.92271303622643</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -27593,19 +27593,19 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117141</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>68.02484827404822</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
         <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>187.431034882095</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>232.2684027589836</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>58.39471529451635</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>195.5884214778211</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27827,16 +27827,16 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>139.8521708183745</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117135</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>109.8881893678024</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,22 +27855,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>77.84108198587944</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203005</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
-        <v>317.3463065441734</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27949,7 +27949,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.77644916451932</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27991,7 +27991,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1.776449164533375</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>11.77492968235637</v>
+        <v>81.51210565544912</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640952</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30525,7 +30525,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30641,7 +30641,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885553</v>
+        <v>3.753577726885566</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546669</v>
+        <v>38.44132789546681</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157554</v>
+        <v>144.7098053157559</v>
       </c>
       <c r="J8" t="n">
-        <v>318.580217597253</v>
+        <v>318.5802175972541</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763186</v>
+        <v>477.4691627763202</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354924</v>
+        <v>592.3427171354945</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359934</v>
+        <v>659.0954050359956</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525071</v>
+        <v>669.7602577525092</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307888</v>
+        <v>632.4356192307908</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983016</v>
+        <v>539.7691690983033</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542126</v>
+        <v>405.3441667542139</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864748</v>
+        <v>235.7856768864756</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140464</v>
+        <v>85.53465245140491</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944152</v>
+        <v>16.43128649944157</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508442</v>
+        <v>0.3002862181508452</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436927</v>
+        <v>2.008341139436934</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035138</v>
+        <v>19.39634732035145</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026265</v>
+        <v>69.14683309026287</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079424</v>
+        <v>189.744195107943</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502165</v>
+        <v>324.3030514502176</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571277</v>
+        <v>436.0654741571291</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617162</v>
+        <v>508.8678404617178</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152209</v>
+        <v>522.3360580152226</v>
       </c>
       <c r="O9" t="n">
-        <v>477.835446451908</v>
+        <v>477.8354464519095</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947586</v>
+        <v>383.5050724947599</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463699</v>
+        <v>256.3629847463708</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204788</v>
+        <v>124.6933209204792</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366396</v>
+        <v>37.30405581366409</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133929</v>
+        <v>8.095024154133956</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419032</v>
+        <v>0.1321277065419036</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752558</v>
+        <v>1.683725746752563</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840002</v>
+        <v>14.96985254840007</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415875</v>
+        <v>50.63422518415891</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954058</v>
+        <v>119.0394102954062</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772517</v>
+        <v>195.6183185772523</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490121</v>
+        <v>250.324098749013</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023123</v>
+        <v>263.9316641023131</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462348</v>
+        <v>257.6559590462356</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046252</v>
+        <v>237.986981004626</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708729</v>
+        <v>203.6389757708736</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939801</v>
+        <v>140.9890713939806</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307408</v>
+        <v>75.70643221307432</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658775</v>
+        <v>29.34274778658784</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942745</v>
+        <v>7.194100917942769</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650326</v>
+        <v>0.09183958618650355</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>610.0546826043645</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>340.7767527663067</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32077,7 +32077,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32086,19 +32086,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>567.5882829286713</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,22 +32323,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>163.4402738502018</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>567.4250434254225</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>308.1572428165614</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33028,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>338.1309585028985</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33426,7 +33426,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M32" t="n">
         <v>965.6463440175675</v>
@@ -33505,25 +33505,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>272.7569329364655</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33742,7 +33742,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>297.7596336167232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,34 +33970,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>531.2627466777524</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34459,16 +34459,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34783,7 +34783,7 @@
         <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>245.5483596572284</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496425</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K6" t="n">
         <v>75.43840481763047</v>
@@ -35023,10 +35023,10 @@
         <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>263.7138800015061</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>238.3094620181792</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
         <v>171.6550983098281</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705667</v>
+        <v>137.5343130705678</v>
       </c>
       <c r="K8" t="n">
-        <v>257.379311731338</v>
+        <v>257.3793117313396</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655052</v>
+        <v>356.5763021655072</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087207</v>
+        <v>428.7491718087228</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559162</v>
+        <v>440.3471941559183</v>
       </c>
       <c r="O8" t="n">
-        <v>402.337407809102</v>
+        <v>402.3374078091041</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430321</v>
+        <v>308.5361733430338</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797631</v>
+        <v>183.0384768797644</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234272</v>
+        <v>20.20013907234349</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127568</v>
+        <v>188.9976037816851</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758575</v>
+        <v>186.4616124758586</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772535</v>
+        <v>297.5110943772549</v>
       </c>
       <c r="M9" t="n">
-        <v>621.9919601401303</v>
+        <v>520.4364115675605</v>
       </c>
       <c r="N9" t="n">
-        <v>640.140690085695</v>
+        <v>640.1406900856986</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074635</v>
+        <v>335.2392020074651</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804284</v>
+        <v>249.5306650804296</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603484</v>
+        <v>116.3812106603493</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783564</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873305</v>
+        <v>25.68023017873344</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513688</v>
+        <v>173.3488267513694</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093282</v>
+        <v>277.9141240093291</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641528</v>
+        <v>303.5155410641537</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254633</v>
+        <v>301.7881314254643</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186649</v>
+        <v>262.5721089186657</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357664</v>
+        <v>200.9175350357671</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8270281422857</v>
+        <v>54.82702814228618</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>471.5003028244903</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35734,19 +35734,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>425.454249006653</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,22 +35971,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>29.46586643587157</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>436.0833313420891</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>165.5609983721169</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>206.7892464195652</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>134.2025531565913</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>397.2883392634221</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326294884</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38107,16 +38107,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2118601.396913655</v>
+        <v>2120361.92721644</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015061</v>
+        <v>123.7911484401894</v>
       </c>
       <c r="E2" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>109.3170492634406</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>2.875953774682611</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>230.0743867402209</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>218.4981500625428</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F5" t="n">
-        <v>219.4450108596165</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>116.9725659584294</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>127.4695742187186</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>10.18456372565635</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015061</v>
+        <v>26.7062588360672</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>176.6348089687886</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>333.70807780237</v>
+        <v>11.54915978824949</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203003</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348404</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>211.0066238247153</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>91.0626477516257</v>
+        <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>20.2497997611522</v>
+        <v>20.24979976115236</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901737</v>
+        <v>132.6026661256438</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0697045406876</v>
+        <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
         <v>225.8092543744329</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>84.79514795625707</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>50.34571932180148</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>22.61263105777477</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>194.0641876011614</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>85.08368458989422</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>41.02686156550273</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>137.9792024346624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695567</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>89.67992556049214</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>144.610040531764</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>32.37373183919259</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>25.52471385612634</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>108.5813113004301</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695645</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>80.08971311158706</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>522.1002068716687</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="C2" t="n">
-        <v>522.1002068716687</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="D2" t="n">
-        <v>255.7225503044907</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E2" t="n">
         <v>41.00642392276842</v>
@@ -4330,22 +4330,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030611</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991323</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.4778634388466</v>
+        <v>432.4256445709457</v>
       </c>
     </row>
     <row r="3">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.09711040012049</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C3" t="n">
         <v>21.09711040012049</v>
@@ -4412,22 +4412,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957459</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298712</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>433.126243926395</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>643.1802110289999</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>813.1187583557296</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4445,16 +4445,16 @@
         <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>801.367527981072</v>
+        <v>1033.614632400004</v>
       </c>
       <c r="W3" t="n">
-        <v>547.1301712528705</v>
+        <v>779.3772756718023</v>
       </c>
       <c r="X3" t="n">
-        <v>339.2786710473376</v>
+        <v>571.5257754662695</v>
       </c>
       <c r="Y3" t="n">
-        <v>131.5183722823837</v>
+        <v>363.7654767013155</v>
       </c>
     </row>
     <row r="4">
@@ -4491,7 +4491,7 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
         <v>316.7083726551008</v>
@@ -4503,7 +4503,7 @@
         <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4521,10 +4521,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>788.4778634388466</v>
+        <v>822.4571495613569</v>
       </c>
       <c r="V4" t="n">
-        <v>788.4778634388466</v>
+        <v>567.7726613554701</v>
       </c>
       <c r="W4" t="n">
         <v>567.7726613554701</v>
@@ -4546,37 +4546,37 @@
         <v>1054.855520006025</v>
       </c>
       <c r="C5" t="n">
-        <v>788.4778634388466</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="D5" t="n">
+        <v>788.4778634388467</v>
+      </c>
+      <c r="E5" t="n">
         <v>522.1002068716687</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>255.7225503044907</v>
       </c>
-      <c r="F5" t="n">
-        <v>34.06092317356495</v>
-      </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991316</v>
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004801</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>503.6022960313625</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4670,28 +4670,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>819.7034117742821</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212815</v>
+        <v>565.4660550460806</v>
       </c>
       <c r="X6" t="n">
-        <v>1026.232198106091</v>
+        <v>357.6145548405477</v>
       </c>
       <c r="Y6" t="n">
-        <v>818.4718993411373</v>
+        <v>149.8542560755938</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>355.3743762745875</v>
+        <v>773.1950127738074</v>
       </c>
       <c r="C7" t="n">
-        <v>186.4381933466806</v>
+        <v>773.1950127738074</v>
       </c>
       <c r="D7" t="n">
-        <v>36.32155393434483</v>
+        <v>623.0783733614717</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434483</v>
+        <v>475.1652797790786</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>328.2753322811682</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N7" t="n">
         <v>739.1822330227046</v>
@@ -4758,19 +4758,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>788.4778634388466</v>
+        <v>1027.879500979694</v>
       </c>
       <c r="V7" t="n">
-        <v>533.7933752329598</v>
+        <v>773.1950127738074</v>
       </c>
       <c r="W7" t="n">
-        <v>355.3743762745875</v>
+        <v>773.1950127738074</v>
       </c>
       <c r="X7" t="n">
-        <v>355.3743762745875</v>
+        <v>773.1950127738074</v>
       </c>
       <c r="Y7" t="n">
-        <v>355.3743762745875</v>
+        <v>773.1950127738074</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169.780630983656</v>
+        <v>1217.916929169387</v>
       </c>
       <c r="C8" t="n">
-        <v>1169.780630983656</v>
+        <v>1217.916929169387</v>
       </c>
       <c r="D8" t="n">
-        <v>1169.780630983656</v>
+        <v>859.6512305626363</v>
       </c>
       <c r="E8" t="n">
-        <v>1169.780630983656</v>
+        <v>473.862977964392</v>
       </c>
       <c r="F8" t="n">
-        <v>758.7947261940483</v>
+        <v>62.87707317478445</v>
       </c>
       <c r="G8" t="n">
-        <v>421.7158597270078</v>
+        <v>51.21125520685567</v>
       </c>
       <c r="H8" t="n">
-        <v>117.641643342866</v>
+        <v>51.21125520685567</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685589</v>
+        <v>51.21125520685567</v>
       </c>
       <c r="J8" t="n">
-        <v>187.370225146718</v>
+        <v>187.370225146717</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607442</v>
+        <v>442.1757437607422</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045963</v>
+        <v>795.1862829045924</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995231</v>
+        <v>1219.647962995227</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209591</v>
+        <v>1655.591685209584</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940603</v>
+        <v>2053.905718940595</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550207</v>
+        <v>2359.356530550198</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661174</v>
+        <v>2540.564622661164</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342794</v>
+        <v>2560.562760342783</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762147</v>
+        <v>2560.562760342783</v>
       </c>
       <c r="T8" t="n">
-        <v>2227.07793185842</v>
+        <v>2560.562760342783</v>
       </c>
       <c r="U8" t="n">
-        <v>2227.07793185842</v>
+        <v>2560.562760342783</v>
       </c>
       <c r="V8" t="n">
-        <v>1896.01504451485</v>
+        <v>2347.424756479435</v>
       </c>
       <c r="W8" t="n">
-        <v>1543.246389244736</v>
+        <v>1994.65610120932</v>
       </c>
       <c r="X8" t="n">
-        <v>1169.780630983656</v>
+        <v>1994.65610120932</v>
       </c>
       <c r="Y8" t="n">
-        <v>1169.780630983656</v>
+        <v>1604.516769233509</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010891</v>
+        <v>931.3041138965631</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199621</v>
+        <v>756.8510846154361</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818587108</v>
+        <v>607.9166749541848</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532553</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801403</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763285</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993892</v>
+        <v>71.66559839993886</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685589</v>
+        <v>51.21125520685567</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507242</v>
+        <v>238.3188829507236</v>
       </c>
       <c r="K9" t="n">
-        <v>422.9158793018242</v>
+        <v>684.7364639442757</v>
       </c>
       <c r="L9" t="n">
-        <v>717.4518627353066</v>
+        <v>979.2724473777571</v>
       </c>
       <c r="M9" t="n">
-        <v>1232.683910187191</v>
+        <v>1342.338915852059</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.423193372033</v>
+        <v>1729.423318324628</v>
       </c>
       <c r="O9" t="n">
-        <v>2198.310003359423</v>
+        <v>2061.310128312017</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789049</v>
+        <v>2308.345486741642</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342794</v>
+        <v>2560.562760342783</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342794</v>
+        <v>2560.562760342783</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.82628025171</v>
+        <v>2426.620673347184</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685359</v>
+        <v>2232.610870780833</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751588</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519845</v>
+        <v>1769.368606615319</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791644</v>
+        <v>1515.131249887118</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586111</v>
+        <v>1307.279749681585</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821157</v>
+        <v>1099.519450916631</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1005.33855060558</v>
+        <v>715.9213805686154</v>
       </c>
       <c r="C10" t="n">
-        <v>836.4023676776729</v>
+        <v>546.9851976407085</v>
       </c>
       <c r="D10" t="n">
-        <v>686.2857282653372</v>
+        <v>396.8685582283728</v>
       </c>
       <c r="E10" t="n">
-        <v>538.3726346829441</v>
+        <v>248.9554646459796</v>
       </c>
       <c r="F10" t="n">
-        <v>391.4826871850337</v>
+        <v>102.0655171480693</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8310225827538</v>
+        <v>102.0655171480693</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0862549473603</v>
+        <v>102.0655171480693</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685589</v>
+        <v>51.21125520685567</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380199</v>
+        <v>76.63468308380152</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676577</v>
+        <v>248.2500215676569</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368935</v>
+        <v>523.3850043368921</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904057</v>
+        <v>823.8653899904036</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101615</v>
+        <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931094</v>
+        <v>1382.582027931091</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616504</v>
+        <v>1581.4903876165</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477367</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477367</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477367</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477367</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477367</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="V10" t="n">
-        <v>1635.769145477367</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="W10" t="n">
-        <v>1635.769145477367</v>
+        <v>1346.351975440403</v>
       </c>
       <c r="X10" t="n">
-        <v>1407.77959457935</v>
+        <v>1118.362424542385</v>
       </c>
       <c r="Y10" t="n">
-        <v>1186.98701543582</v>
+        <v>897.5698453988551</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2354.274259167293</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2354.274259167293</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400712</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E13" t="n">
-        <v>365.9405071576781</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>365.9405071576781</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>198.744407872558</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="14">
@@ -5272,40 +5272,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5363,16 +5363,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474262</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>175.9033664000583</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5512,31 +5512,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5545,19 +5545,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5600,13 +5600,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5749,19 +5749,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5770,31 +5770,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5834,16 +5834,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>414.4022433768879</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>266.4891497944948</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="26">
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,19 +6238,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>700.7543264856228</v>
+        <v>696.7084350851699</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D28" t="n">
         <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853364</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="T28" t="n">
-        <v>2164.361806256059</v>
+        <v>2160.315914855607</v>
       </c>
       <c r="U28" t="n">
-        <v>1875.286579600257</v>
+        <v>1871.240688199805</v>
       </c>
       <c r="V28" t="n">
-        <v>1620.602091394371</v>
+        <v>1616.556199993918</v>
       </c>
       <c r="W28" t="n">
-        <v>1331.18492135741</v>
+        <v>1327.139029956957</v>
       </c>
       <c r="X28" t="n">
-        <v>1103.195370459393</v>
+        <v>1099.14947905894</v>
       </c>
       <c r="Y28" t="n">
-        <v>882.4027913158625</v>
+        <v>878.3568999154096</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,37 +6712,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>2171.280006238955</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6925,34 +6925,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2337.284991357604</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.683526380545</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.608299724743</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.923811518856</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.506641481895</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.517090583878</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7168,37 +7168,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7311,55 +7311,55 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
         <v>2035.268256189238</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,10 +7423,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332386</v>
@@ -7666,16 +7666,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761156</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>97.32166909127278</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446524</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8303,10 +8303,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>71.18793141915887</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>26.13373767211354</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>153.702605027861</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.1463441538092</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>138.3837121690873</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348477</v>
+        <v>20.98618304348506</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>-1.077743684667804e-12</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>117.6820817884491</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>92.12028678808278</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>61.35027805667495</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>176.3785887617855</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>55.74112246243911</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>22.63678056686379</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>185.0317184880957</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>191.8807364711619</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>72.44497470121448</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>68.5257599066253</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>65.5498640939303</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>856777.7080615715</v>
+        <v>856777.7080615716</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>837694.3120874658</v>
+        <v>837694.3120874659</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>837694.312087466</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>837694.3120874658</v>
+        <v>837694.3120874659</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>837694.3120874658</v>
+        <v>837694.3120874659</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>837694.3120874658</v>
+        <v>837694.3120874657</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516051</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="G2" t="n">
         <v>585181.2847752542</v>
@@ -26334,28 +26334,28 @@
         <v>585181.2847752543</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="L2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="M2" t="n">
+        <v>585181.2847752541</v>
+      </c>
+      <c r="N2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752545</v>
       </c>
       <c r="O2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911928</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580819</v>
+        <v>390680.0076580792</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606905</v>
+        <v>507909.2320606932</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101834</v>
+        <v>95270.2377910177</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954683</v>
+        <v>132717.9756954691</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,25 +26423,25 @@
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>140465.2517501109</v>
+        <v>140465.2517501117</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179347</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
@@ -26459,7 +26459,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179347</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567918</v>
+        <v>92902.86757567897</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-399107.8662628743</v>
+        <v>-399107.8662628737</v>
       </c>
       <c r="C6" t="n">
-        <v>280980.114328319</v>
+        <v>280980.1143283188</v>
       </c>
       <c r="D6" t="n">
-        <v>-28792.84383226637</v>
+        <v>-28792.84383226454</v>
       </c>
       <c r="E6" t="n">
-        <v>-35364.88861549376</v>
+        <v>-35052.2472865751</v>
       </c>
       <c r="F6" t="n">
-        <v>472544.3434451968</v>
+        <v>472856.9847741183</v>
       </c>
       <c r="G6" t="n">
-        <v>472544.3434451966</v>
+        <v>472856.9847741178</v>
       </c>
       <c r="H6" t="n">
-        <v>472544.3434451966</v>
+        <v>472856.9847741181</v>
       </c>
       <c r="I6" t="n">
-        <v>472544.343445197</v>
+        <v>472856.9847741178</v>
       </c>
       <c r="J6" t="n">
-        <v>403545.1890260827</v>
+        <v>403857.8303550038</v>
       </c>
       <c r="K6" t="n">
-        <v>472544.3434451968</v>
+        <v>472856.9847741181</v>
       </c>
       <c r="L6" t="n">
-        <v>377274.1056541784</v>
+        <v>377586.7469831004</v>
       </c>
       <c r="M6" t="n">
-        <v>339826.3677497282</v>
+        <v>340139.0090786486</v>
       </c>
       <c r="N6" t="n">
-        <v>472544.3434451969</v>
+        <v>472856.9847741179</v>
       </c>
       <c r="O6" t="n">
-        <v>472544.3434451967</v>
+        <v>472856.9847741179</v>
       </c>
       <c r="P6" t="n">
-        <v>472544.3434451967</v>
+        <v>472856.9847741183</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627852</v>
+        <v>933.7024595627831</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,16 +26792,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856986</v>
+        <v>640.1406900856958</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26810,22 +26810,22 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933069</v>
+        <v>319.6474457933048</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788886</v>
+        <v>434.2730407788908</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841924</v>
+        <v>376.4268100841896</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139498</v>
+        <v>532.5675980139528</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841924</v>
+        <v>376.4268100841899</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139498</v>
+        <v>532.5675980139526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841924</v>
+        <v>376.4268100841896</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139498</v>
+        <v>532.5675980139528</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>230.8918931804936</v>
       </c>
       <c r="E2" t="n">
-        <v>169.3614049543567</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.21613438642676</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27478,7 +27478,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27517,7 +27517,7 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>229.9246333747427</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27593,13 +27593,13 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117134</v>
+        <v>56.18424376245653</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>68.02484827404822</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27621,22 +27621,22 @@
         <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>187.431034882095</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>295.8616086872806</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>39.06360943114878</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27754,13 +27754,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>195.5884214778211</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27776,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,13 +27830,13 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117134</v>
+        <v>259.5523716666103</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>109.8881893678024</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>77.84108198587944</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465031</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>116.7456346454196</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27949,7 +27949,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.77644916451932</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.77644916453005</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>81.51210565544912</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>54.47053042129799</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640952</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
         <v>220.7514885103387</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29474,7 +29474,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -31047,16 +31047,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350879</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K2" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167917</v>
       </c>
       <c r="M2" t="n">
         <v>433.4580399459292</v>
@@ -31065,25 +31065,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702306</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990947</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L3" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O3" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736543</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944813</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.0868945774202092</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,22 +31199,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582787</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244974</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779067</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31226,19 +31226,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.7223070791912</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350554</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.73124354871565</v>
       </c>
       <c r="U4" t="n">
         <v>0.06039885381339136</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885566</v>
+        <v>3.753577726885557</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546681</v>
+        <v>38.44132789546673</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157559</v>
+        <v>144.7098053157556</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972541</v>
+        <v>318.5802175972534</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763202</v>
+        <v>477.4691627763191</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354945</v>
+        <v>592.3427171354931</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359956</v>
+        <v>659.0954050359941</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525092</v>
+        <v>669.7602577525078</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307908</v>
+        <v>632.4356192307895</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983033</v>
+        <v>539.7691690983022</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542139</v>
+        <v>405.344166754213</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864756</v>
+        <v>235.7856768864751</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140491</v>
+        <v>85.53465245140472</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944157</v>
+        <v>16.43128649944154</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508452</v>
+        <v>0.3002862181508446</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436934</v>
+        <v>2.00834113943693</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035145</v>
+        <v>19.3963473203514</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026287</v>
+        <v>69.14683309026272</v>
       </c>
       <c r="J9" t="n">
-        <v>189.744195107943</v>
+        <v>189.7441951079426</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502176</v>
+        <v>324.3030514502169</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571291</v>
+        <v>436.0654741571282</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617178</v>
+        <v>508.8678404617168</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152226</v>
+        <v>522.3360580152215</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519095</v>
+        <v>477.8354464519085</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947599</v>
+        <v>383.505072494759</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463708</v>
+        <v>256.3629847463702</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204792</v>
+        <v>124.6933209204789</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366409</v>
+        <v>37.304055813664</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133956</v>
+        <v>8.095024154133938</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419036</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752563</v>
+        <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840007</v>
+        <v>14.96985254840004</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415891</v>
+        <v>50.63422518415881</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954062</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772523</v>
+        <v>195.6183185772519</v>
       </c>
       <c r="L10" t="n">
-        <v>250.324098749013</v>
+        <v>250.3240987490124</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023131</v>
+        <v>263.9316641023125</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462356</v>
+        <v>257.6559590462351</v>
       </c>
       <c r="O10" t="n">
-        <v>237.986981004626</v>
+        <v>237.9869810046255</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708736</v>
+        <v>203.6389757708731</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939806</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307432</v>
+        <v>75.70643221307417</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658784</v>
+        <v>29.34274778658778</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942769</v>
+        <v>7.194100917942753</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650355</v>
+        <v>0.09183958618650336</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>340.7767527663067</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>514.8598010172136</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32554,7 +32554,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33268,16 +33268,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>171.7382405950817</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>400.5469039565762</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>400.5469039565762</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>400.5469039565762</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>400.5469039565762</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217703</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664461</v>
       </c>
       <c r="L2" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186564</v>
       </c>
       <c r="N2" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441511</v>
       </c>
       <c r="P2" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117352</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.43840481763041</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250137</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649636</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34874,10 +34874,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496811</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>238.3094620181793</v>
       </c>
       <c r="O6" t="n">
         <v>171.6550983098281</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705678</v>
+        <v>137.5343130705671</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313396</v>
+        <v>257.3793117313386</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655072</v>
+        <v>356.5763021655059</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087228</v>
+        <v>428.7491718087214</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559183</v>
+        <v>440.3471941559168</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091041</v>
+        <v>402.3374078091027</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430338</v>
+        <v>308.5361733430327</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797644</v>
+        <v>183.0384768797635</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234349</v>
+        <v>20.20013907234298</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816851</v>
+        <v>188.9976037816847</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758586</v>
+        <v>450.9268494884365</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772549</v>
+        <v>297.511094377254</v>
       </c>
       <c r="M9" t="n">
-        <v>520.4364115675605</v>
+        <v>366.7338065396984</v>
       </c>
       <c r="N9" t="n">
-        <v>640.1406900856986</v>
+        <v>390.9943459318882</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074651</v>
+        <v>335.239202007464</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804296</v>
+        <v>249.5306650804288</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603493</v>
+        <v>254.764922829436</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873344</v>
+        <v>25.68023017873318</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513694</v>
+        <v>173.348826751369</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093291</v>
+        <v>277.9141240093285</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641537</v>
+        <v>303.5155410641531</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254643</v>
+        <v>301.7881314254637</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186657</v>
+        <v>262.5721089186652</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357671</v>
+        <v>200.9175350357666</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228618</v>
+        <v>54.82702814228587</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>200.7949786802852</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>376.3054212373395</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36202,7 +36202,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,19 +36439,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,19 +36676,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.631773306628</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>37.7638331807514</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>257.9506595121318</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>257.9506595121318</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>257.9506595121318</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>257.9506595121318</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
